--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inha</t>
+  </si>
+  <si>
+    <t>Tgfbr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Inha</t>
-  </si>
-  <si>
-    <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.695616</v>
       </c>
       <c r="I2">
-        <v>0.5101677332198024</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.609721485701764</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N2">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O2">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P2">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q2">
-        <v>5.665366989461333</v>
+        <v>5.176195983232</v>
       </c>
       <c r="R2">
-        <v>50.988302905152</v>
+        <v>46.585763849088</v>
       </c>
       <c r="S2">
-        <v>0.118760595150454</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="T2">
-        <v>0.1550157548262331</v>
+        <v>0.2757701347495435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.695616</v>
       </c>
       <c r="I3">
-        <v>0.5101677332198024</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.609721485701764</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
         <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P3">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q3">
         <v>12.45619359690667</v>
@@ -638,10 +638,10 @@
         <v>112.10574237216</v>
       </c>
       <c r="S3">
-        <v>0.2611137050132321</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="T3">
-        <v>0.3408263323943593</v>
+        <v>0.6636236722513976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +670,10 @@
         <v>0.695616</v>
       </c>
       <c r="I4">
-        <v>0.5101677332198024</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.609721485701764</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N4">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O4">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P4">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q4">
-        <v>0.04386585412266666</v>
+        <v>0.05421623374933333</v>
       </c>
       <c r="R4">
-        <v>0.3947926871040001</v>
+        <v>0.487946103744</v>
       </c>
       <c r="S4">
-        <v>0.0009195405967665675</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="T4">
-        <v>0.001200257370894369</v>
+        <v>0.002888456722871399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.695616</v>
       </c>
       <c r="I5">
-        <v>0.5101677332198024</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.609721485701764</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N5">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O5">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P5">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q5">
-        <v>6.160727045824</v>
+        <v>1.617866127456</v>
       </c>
       <c r="R5">
-        <v>36.964362274944</v>
+        <v>9.707196764736</v>
       </c>
       <c r="S5">
-        <v>0.129144610028365</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="T5">
-        <v>0.1123798634831951</v>
+        <v>0.05746294014891389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.695616</v>
       </c>
       <c r="I6">
-        <v>0.5101677332198024</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.609721485701764</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,338 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N6">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O6">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P6">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q6">
-        <v>0.01093771140266667</v>
+        <v>0.004782514581333334</v>
       </c>
       <c r="R6">
-        <v>0.098439402624</v>
+        <v>0.043042631232</v>
       </c>
       <c r="S6">
-        <v>0.0002292824309847766</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="T6">
-        <v>0.0002992776270822098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2226295</v>
-      </c>
-      <c r="H7">
-        <v>0.445259</v>
-      </c>
-      <c r="I7">
-        <v>0.4898322667801976</v>
-      </c>
-      <c r="J7">
-        <v>0.390278514298236</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>24.43316566666667</v>
-      </c>
-      <c r="N7">
-        <v>73.299497</v>
-      </c>
-      <c r="O7">
-        <v>0.2327873509383369</v>
-      </c>
-      <c r="P7">
-        <v>0.2542402694696194</v>
-      </c>
-      <c r="Q7">
-        <v>5.439543455787167</v>
-      </c>
-      <c r="R7">
-        <v>32.637260734723</v>
-      </c>
-      <c r="S7">
-        <v>0.1140267557878829</v>
-      </c>
-      <c r="T7">
-        <v>0.09922451464338622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2226295</v>
-      </c>
-      <c r="H8">
-        <v>0.445259</v>
-      </c>
-      <c r="I8">
-        <v>0.4898322667801976</v>
-      </c>
-      <c r="J8">
-        <v>0.390278514298236</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>53.72012833333333</v>
-      </c>
-      <c r="N8">
-        <v>161.160385</v>
-      </c>
-      <c r="O8">
-        <v>0.5118193253134121</v>
-      </c>
-      <c r="P8">
-        <v>0.558986915152059</v>
-      </c>
-      <c r="Q8">
-        <v>11.95968531078583</v>
-      </c>
-      <c r="R8">
-        <v>71.758111864715</v>
-      </c>
-      <c r="S8">
-        <v>0.2507056203001801</v>
-      </c>
-      <c r="T8">
-        <v>0.2181605827576997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2226295</v>
-      </c>
-      <c r="H9">
-        <v>0.445259</v>
-      </c>
-      <c r="I9">
-        <v>0.4898322667801976</v>
-      </c>
-      <c r="J9">
-        <v>0.390278514298236</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1891813333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.567544</v>
-      </c>
-      <c r="O9">
-        <v>0.001802427979839308</v>
-      </c>
-      <c r="P9">
-        <v>0.001968533829036585</v>
-      </c>
-      <c r="Q9">
-        <v>0.04211734564933334</v>
-      </c>
-      <c r="R9">
-        <v>0.252704073896</v>
-      </c>
-      <c r="S9">
-        <v>0.0008828873830727408</v>
-      </c>
-      <c r="T9">
-        <v>0.000768276458142216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2226295</v>
-      </c>
-      <c r="H10">
-        <v>0.445259</v>
-      </c>
-      <c r="I10">
-        <v>0.4898322667801976</v>
-      </c>
-      <c r="J10">
-        <v>0.390278514298236</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>26.569517</v>
-      </c>
-      <c r="N10">
-        <v>53.139034</v>
-      </c>
-      <c r="O10">
-        <v>0.2531414701853045</v>
-      </c>
-      <c r="P10">
-        <v>0.1843134383789191</v>
-      </c>
-      <c r="Q10">
-        <v>5.915158284951501</v>
-      </c>
-      <c r="R10">
-        <v>23.660633139806</v>
-      </c>
-      <c r="S10">
-        <v>0.1239968601569395</v>
-      </c>
-      <c r="T10">
-        <v>0.07193357489572402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2226295</v>
-      </c>
-      <c r="H11">
-        <v>0.445259</v>
-      </c>
-      <c r="I11">
-        <v>0.4898322667801976</v>
-      </c>
-      <c r="J11">
-        <v>0.390278514298236</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.04717133333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.141514</v>
-      </c>
-      <c r="O11">
-        <v>0.0004494255831071774</v>
-      </c>
-      <c r="P11">
-        <v>0.0004908431703661447</v>
-      </c>
-      <c r="Q11">
-        <v>0.01050173035433333</v>
-      </c>
-      <c r="R11">
-        <v>0.06301038212600001</v>
-      </c>
-      <c r="S11">
-        <v>0.0002201431521224008</v>
-      </c>
-      <c r="T11">
-        <v>0.0001915655432839349</v>
+        <v>0.0002547961272734595</v>
       </c>
     </row>
   </sheetData>
